--- a/docs/CollaboraForge 仕様書.xlsx
+++ b/docs/CollaboraForge 仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\CollaboraForge\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D8BCE0-4244-4FE2-B3AE-E50E7313A5EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D649A7-843D-44FE-8BC6-BA08D4F443EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="機能" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="119">
   <si>
     <t>目的</t>
   </si>
@@ -335,9 +335,6 @@
     <t>バックエンドフレームワーク</t>
   </si>
   <si>
-    <t>SpringBoot（JAVA）</t>
-  </si>
-  <si>
     <t>インフラ/DB</t>
   </si>
   <si>
@@ -345,10 +342,6 @@
   </si>
   <si>
     <t>github</t>
-  </si>
-  <si>
-    <t>Vue.js</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>TailWind(仮)</t>
@@ -407,6 +400,25 @@
     <rPh sb="7" eb="9">
       <t>モロモロ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CollaboraForgeは、"Collaboration"（協力）と "Forge"（鍛造所）を組み合わせた造語です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Collaborationはチームワークや共同作業を意味し、"Forge"は創造や形成を示します。この名前は、開発者やチームが協力して新しいプロジェクトやアイデアを鍛造していくという意味を持っています。</t>
+  </si>
+  <si>
+    <t>Vue.js (Vue CLI v5.0.8)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Node.js (v18.10.0)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SpringBoot（JAVA 17）</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -732,9 +744,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D79"/>
+  <dimension ref="A1:D82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
@@ -758,301 +772,311 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
+    <row r="6" spans="1:2">
+      <c r="B6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="B12" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="B13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="B14" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="B15" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="B16" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="B17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="B20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" t="s">
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="B21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="B23" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="B24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="B25" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="B26" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="B27" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="B28" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="B29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="B30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="B31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="B32" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32" t="s">
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="2:2">
-      <c r="B33" t="s">
+    <row r="36" spans="1:2">
+      <c r="B36" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="2:2">
-      <c r="B35" t="s">
+    <row r="38" spans="1:2">
+      <c r="B38" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="2:2">
-      <c r="B36" t="s">
+    <row r="39" spans="1:2">
+      <c r="B39" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="2:2">
-      <c r="B37" t="s">
+    <row r="40" spans="1:2">
+      <c r="B40" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="2:2">
-      <c r="B38" t="s">
+    <row r="41" spans="1:2">
+      <c r="B41" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="2:2">
-      <c r="B40" t="s">
+    <row r="43" spans="1:2">
+      <c r="B43" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="2:2">
-      <c r="B41" t="s">
+    <row r="44" spans="1:2">
+      <c r="B44" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="2:2">
-      <c r="B42" t="s">
+    <row r="45" spans="1:2">
+      <c r="B45" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="2:2">
-      <c r="B43" t="s">
+    <row r="46" spans="1:2">
+      <c r="B46" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="2:2">
-      <c r="B44" t="s">
+    <row r="47" spans="1:2">
+      <c r="B47" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="2:2">
-      <c r="B45" t="s">
+    <row r="48" spans="1:2">
+      <c r="B48" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="2:2">
-      <c r="B46" t="s">
+    <row r="49" spans="1:2">
+      <c r="B49" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="2:2">
-      <c r="B47" t="s">
+    <row r="50" spans="1:2">
+      <c r="B50" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
-      <c r="A50" t="s">
-        <v>4</v>
-      </c>
-      <c r="B50" t="s">
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="B51" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="B53" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="B54" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="B55" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="B56" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="B57" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="B58" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="B59" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
-      <c r="A59" t="s">
-        <v>4</v>
-      </c>
-      <c r="B59" t="s">
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
-      <c r="B60" t="s">
+    <row r="63" spans="1:2">
+      <c r="B63" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
-      <c r="A63" t="s">
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
-      <c r="A64" t="s">
-        <v>4</v>
-      </c>
-      <c r="B64" t="s">
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>4</v>
+      </c>
+      <c r="B67" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
-      <c r="B65" t="s">
+    <row r="68" spans="1:4">
+      <c r="B68" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="B66" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="B67" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="B69" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="B70" t="s">
-        <v>45</v>
-      </c>
-      <c r="C70" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="B71" t="s">
-        <v>47</v>
-      </c>
-      <c r="C71" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="B72" t="s">
-        <v>49</v>
-      </c>
-      <c r="C72" t="s">
-        <v>50</v>
-      </c>
-      <c r="D72" t="s">
-        <v>51</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="B73" t="s">
+        <v>45</v>
+      </c>
+      <c r="C73" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="B74" t="s">
+        <v>47</v>
+      </c>
+      <c r="C74" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="B75" t="s">
+        <v>49</v>
+      </c>
+      <c r="C75" t="s">
+        <v>50</v>
+      </c>
+      <c r="D75" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="B77" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
-      <c r="A77" t="s">
-        <v>4</v>
-      </c>
-      <c r="B77" t="s">
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>4</v>
+      </c>
+      <c r="B80" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
-      <c r="B78" t="s">
+    <row r="81" spans="2:2">
+      <c r="B81" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
-      <c r="B79" t="s">
+    <row r="82" spans="2:2">
+      <c r="B82" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1304,9 +1328,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C23B01B-A3ED-44FF-8D15-10CA52F31883}">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
@@ -1325,77 +1351,82 @@
     </row>
     <row r="4" spans="1:2">
       <c r="B4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="B8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="B14" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="B15" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="B9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="B13" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" t="s">
-        <v>99</v>
-      </c>
-    </row>
     <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
       <c r="B17" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="B18" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="B23" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" t="s">
+    <row r="21" spans="1:2">
+      <c r="B21" t="s">
         <v>102</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="B27" t="s">
-        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1414,7 +1445,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1433,31 +1464,31 @@
   <sheetData>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B21" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/docs/CollaboraForge 仕様書.xlsx
+++ b/docs/CollaboraForge 仕様書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\CollaboraForge\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D649A7-843D-44FE-8BC6-BA08D4F443EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B068AA2C-F32F-4FB9-A06C-6527438C11E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="機能" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="120">
   <si>
     <t>目的</t>
   </si>
@@ -419,6 +419,10 @@
   </si>
   <si>
     <t>SpringBoot（JAVA 17）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>typescript</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1328,20 +1332,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C23B01B-A3ED-44FF-8D15-10CA52F31883}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1349,17 +1353,20 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:5">
       <c r="B4" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="E4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="B5" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1367,12 +1374,12 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:5">
       <c r="B8" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -1380,12 +1387,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:5">
       <c r="B11" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1393,12 +1400,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:5">
       <c r="B14" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:5">
       <c r="B15" t="s">
         <v>104</v>
       </c>
